--- a/assets/db/gatienda_uaq.xlsx
+++ b/assets/db/gatienda_uaq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Local Sites\deportes-uaq\app\public\wp-content\themes\Deportes-UAQ\assets\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D23D5C-6628-45AA-901E-DF5DA10B2BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20F9F76-834C-4456-BE44-6F703D6728E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39660" yWindow="1380" windowWidth="26295" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="productos" sheetId="1" r:id="rId1"/>
@@ -304,9 +304,6 @@
     <t>Gafas deportivas para natación o ciclismo</t>
   </si>
   <si>
-    <t>Gorra de silicona para natación</t>
-  </si>
-  <si>
     <t>Toalla absorbente ideal para entrenamientos</t>
   </si>
   <si>
@@ -332,6 +329,9 @@
   </si>
   <si>
     <t>MX 26 (S US), MX 28 (M US), MX 30 (L US)</t>
+  </si>
+  <si>
+    <t>Gorra de silicona para natación de los más altos</t>
   </si>
 </sst>
 </file>
@@ -645,7 +645,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -693,7 +693,7 @@
         <v>77</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -710,7 +710,7 @@
         <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>19</v>
@@ -728,7 +728,7 @@
         <v>21</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -745,7 +745,7 @@
         <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>19</v>
@@ -763,7 +763,7 @@
         <v>21</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -780,7 +780,7 @@
         <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>19</v>
@@ -798,7 +798,7 @@
         <v>21</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -815,7 +815,7 @@
         <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>19</v>
@@ -833,7 +833,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -850,7 +850,7 @@
         <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>19</v>
@@ -868,7 +868,7 @@
         <v>21</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -885,7 +885,7 @@
         <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>19</v>
@@ -903,7 +903,7 @@
         <v>21</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -920,7 +920,7 @@
         <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>19</v>
@@ -938,7 +938,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -955,7 +955,7 @@
         <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>19</v>
@@ -973,7 +973,7 @@
         <v>21</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -990,7 +990,7 @@
         <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>28</v>
@@ -1008,7 +1008,7 @@
         <v>21</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -1043,7 +1043,7 @@
         <v>31</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -1060,7 +1060,7 @@
         <v>46</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>19</v>
@@ -1078,7 +1078,7 @@
         <v>31</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -1095,7 +1095,7 @@
         <v>46</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>19</v>
@@ -1113,7 +1113,7 @@
         <v>31</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -1130,7 +1130,7 @@
         <v>46</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>19</v>
@@ -1148,7 +1148,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -1165,7 +1165,7 @@
         <v>46</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>19</v>
@@ -1183,7 +1183,7 @@
         <v>21</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -1197,7 +1197,7 @@
         <v>92</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>46</v>
@@ -1218,7 +1218,7 @@
         <v>21</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -1253,7 +1253,7 @@
         <v>31</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -1264,13 +1264,13 @@
         <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>19</v>
@@ -1288,7 +1288,7 @@
         <v>31</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -1299,7 +1299,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>39</v>
@@ -1323,7 +1323,7 @@
         <v>31</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -1334,7 +1334,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>40</v>
@@ -1358,7 +1358,7 @@
         <v>31</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -1369,7 +1369,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>42</v>
@@ -1393,7 +1393,7 @@
         <v>31</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -1404,7 +1404,7 @@
         <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>42</v>
@@ -1428,7 +1428,7 @@
         <v>31</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>

--- a/assets/db/gatienda_uaq.xlsx
+++ b/assets/db/gatienda_uaq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Local Sites\deportes-uaq\app\public\wp-content\themes\Deportes-UAQ\assets\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20F9F76-834C-4456-BE44-6F703D6728E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DE87FE-D0E5-4C29-B7B8-C57B1C1DA010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39660" yWindow="1380" windowWidth="26295" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,9 +85,6 @@
     <t>Azul, Negro</t>
   </si>
   <si>
-    <t>Ropa Deportiva</t>
-  </si>
-  <si>
     <t>Negro, Gris</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
     <t>30x15x20 cm</t>
   </si>
   <si>
-    <t>Accesorios</t>
-  </si>
-  <si>
     <t>Negro, Azul</t>
   </si>
   <si>
@@ -332,6 +326,12 @@
   </si>
   <si>
     <t>Gorra de silicona para natación de los más altos</t>
+  </si>
+  <si>
+    <t>deportiva</t>
+  </si>
+  <si>
+    <t>accesorios</t>
   </si>
 </sst>
 </file>
@@ -644,8 +644,8 @@
   </sheetPr>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -663,37 +663,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>19</v>
@@ -719,16 +719,16 @@
         <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I2" s="2">
         <v>450</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -739,31 +739,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="I3" s="2">
         <v>350</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -774,31 +774,31 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I4" s="2">
         <v>280</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -809,31 +809,31 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I5" s="2">
         <v>500</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -844,31 +844,31 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I6" s="2">
         <v>800</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -879,31 +879,31 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I7" s="2">
         <v>400</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -914,31 +914,31 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I8" s="2">
         <v>300</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -949,31 +949,31 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I9" s="2">
         <v>320</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -984,31 +984,31 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I10" s="2">
         <v>450</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -1019,31 +1019,31 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I11" s="2">
         <v>350</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -1054,31 +1054,31 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I12" s="2">
         <v>150</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -1089,31 +1089,31 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I13" s="2">
         <v>200</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -1124,31 +1124,31 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I14" s="2">
         <v>220</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -1159,31 +1159,31 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I15" s="2">
         <v>250</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -1194,31 +1194,31 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I16" s="2">
         <v>300</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -1229,13 +1229,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>19</v>
@@ -1244,16 +1244,16 @@
         <v>20</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I17" s="2">
         <v>400</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -1261,34 +1261,34 @@
         <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I18" s="2">
         <v>120</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -1299,31 +1299,31 @@
         <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I19" s="2">
         <v>180</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -1334,31 +1334,31 @@
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I20" s="2">
         <v>250</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -1369,31 +1369,31 @@
         <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I21" s="2">
         <v>300</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -1401,34 +1401,34 @@
         <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I22" s="2">
         <v>180</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>

--- a/assets/db/gatienda_uaq.xlsx
+++ b/assets/db/gatienda_uaq.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Local Sites\deportes-uaq\app\public\wp-content\themes\Deportes-UAQ\assets\db\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C372545-41D1-4F2C-B79C-DF5137EE0D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="1920" windowWidth="32910" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="productos" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="productos"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="105">
   <si>
     <t>id</t>
   </si>
@@ -79,54 +73,66 @@
     <t>deportiva</t>
   </si>
   <si>
+    <t>/img/gatienda/Gachamarra_000000_1.jpg</t>
+  </si>
+  <si>
+    <t>Gadeportiva</t>
+  </si>
+  <si>
+    <t>Pantalón deportivo ajustado para entrenar</t>
+  </si>
+  <si>
+    <t>Blanco, Negro</t>
+  </si>
+  <si>
+    <t>Comodidad para cada entrenamiento</t>
+  </si>
+  <si>
+    <t>/img/gatienda/Gadeportiva_FFFFFF_1.JPG</t>
+  </si>
+  <si>
+    <t>Gadeportiva manga</t>
+  </si>
+  <si>
+    <t>Playera deportiva con mangas largas y tela respirable</t>
+  </si>
+  <si>
+    <t>Estilo y rendimiento en uno</t>
+  </si>
+  <si>
+    <t>/img/gatienda/Gadeportiva manga larga_000000_1.jpg</t>
+  </si>
+  <si>
+    <t>Gasueter</t>
+  </si>
+  <si>
+    <t>Suéter casual y cómodo para uso diario</t>
+  </si>
+  <si>
+    <t>MX 26 (S US), MX 28 (M US), MX 30 (L US), MX 32 (XL US)</t>
+  </si>
+  <si>
+    <t>Azul</t>
+  </si>
+  <si>
+    <t>Versatilidad para cada ocasión</t>
+  </si>
+  <si>
+    <t>/img/gatienda/Gasueter_0000FF_1.jpg</t>
+  </si>
+  <si>
+    <t>Gaoficial</t>
+  </si>
+  <si>
+    <t>Uniforme oficial para eventos deportivos</t>
+  </si>
+  <si>
+    <t>Representa a tu equipo con orgullo</t>
+  </si>
+  <si>
     <t>/img/gatienda/IMG_0002.jpg</t>
   </si>
   <si>
-    <t>Gadeportiva</t>
-  </si>
-  <si>
-    <t>Pantalón deportivo ajustado para entrenar</t>
-  </si>
-  <si>
-    <t>Blanco, Negro</t>
-  </si>
-  <si>
-    <t>Comodidad para cada entrenamiento</t>
-  </si>
-  <si>
-    <t>Gadeportiva manga larga</t>
-  </si>
-  <si>
-    <t>Playera deportiva con mangas largas y tela respirable</t>
-  </si>
-  <si>
-    <t>Estilo y rendimiento en uno</t>
-  </si>
-  <si>
-    <t>Gasueter</t>
-  </si>
-  <si>
-    <t>Suéter casual y cómodo para uso diario</t>
-  </si>
-  <si>
-    <t>MX 26 (S US), MX 28 (M US), MX 30 (L US), MX 32 (XL US)</t>
-  </si>
-  <si>
-    <t>Azul</t>
-  </si>
-  <si>
-    <t>Versatilidad para cada ocasión</t>
-  </si>
-  <si>
-    <t>Gaoficial</t>
-  </si>
-  <si>
-    <t>Uniforme oficial para eventos deportivos</t>
-  </si>
-  <si>
-    <t>Representa a tu equipo con orgullo</t>
-  </si>
-  <si>
     <t>Gapolo</t>
   </si>
   <si>
@@ -280,6 +286,9 @@
     <t>Seca cada momento</t>
   </si>
   <si>
+    <t>/img/gatienda/Gatoalla_0000FF_1.jpg</t>
+  </si>
+  <si>
     <t>Gavaso</t>
   </si>
   <si>
@@ -320,25 +329,14 @@
   </si>
   <si>
     <t>Sencillo pero efectivo</t>
-  </si>
-  <si>
-    <t>/img/gatienda/Gachamarra_000000_1.jpg</t>
-  </si>
-  <si>
-    <t>/img/gatienda/Gadeportiva_FFFFFF_1.JPG</t>
-  </si>
-  <si>
-    <t>/img/gatienda/Gadeportiva manga larga_000000_1.jpg</t>
-  </si>
-  <si>
-    <t>/img/gatienda/Gasueter_0000FF_1.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,6 +348,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -368,7 +372,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEFEFEF"/>
+        <fgColor rgb="FFefefef"/>
       </patternFill>
     </fill>
   </fills>
@@ -406,56 +410,65 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="17">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -466,10 +479,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -507,71 +520,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -599,7 +612,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -622,11 +635,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -635,13 +648,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -651,7 +664,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -660,7 +673,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -669,7 +682,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -677,10 +690,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -745,32 +758,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="14" width="2.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="46.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="51.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="23.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="15" width="37.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="15" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="16" width="46.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,7 +816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -837,10 +848,10 @@
         <v>18</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -872,18 +883,18 @@
         <v>18</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="28.5">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>13</v>
@@ -898,7 +909,7 @@
         <v>16</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="5">
         <v>280</v>
@@ -907,33 +918,33 @@
         <v>18</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I5" s="5">
         <v>500</v>
@@ -942,18 +953,18 @@
         <v>18</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>13</v>
@@ -968,7 +979,7 @@
         <v>16</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I6" s="5">
         <v>800</v>
@@ -977,18 +988,18 @@
         <v>18</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="5">
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>13</v>
@@ -1000,10 +1011,10 @@
         <v>15</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I7" s="5">
         <v>300</v>
@@ -1012,33 +1023,33 @@
         <v>18</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="5">
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I8" s="5">
         <v>320</v>
@@ -1047,33 +1058,33 @@
         <v>18</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="5">
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I9" s="5">
         <v>450</v>
@@ -1082,21 +1093,21 @@
         <v>18</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="28.5" customFormat="1" s="8">
       <c r="A10" s="5">
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>13</v>
@@ -1105,30 +1116,30 @@
         <v>15</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I10" s="5">
         <v>350</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="28.5" customFormat="1" s="8">
       <c r="A11" s="5">
         <v>12</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>13</v>
@@ -1140,30 +1151,30 @@
         <v>15</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I11" s="5">
         <v>150</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="28.5" customFormat="1" s="8">
       <c r="A12" s="5">
         <v>13</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>13</v>
@@ -1175,45 +1186,45 @@
         <v>15</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I12" s="5">
         <v>200</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="28.5" customFormat="1" s="8">
       <c r="A13" s="5">
         <v>14</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I13" s="5">
         <v>220</v>
@@ -1222,33 +1233,33 @@
         <v>18</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="28.5" customFormat="1" s="8">
       <c r="A14" s="5">
         <v>15</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I14" s="5">
         <v>250</v>
@@ -1257,33 +1268,33 @@
         <v>18</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="28.5" customFormat="1" s="8">
       <c r="A15" s="5">
         <v>16</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="H15" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I15" s="5">
         <v>300</v>
@@ -1292,21 +1303,21 @@
         <v>18</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="28.5" customFormat="1" s="8">
       <c r="A16" s="5">
         <v>17</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>13</v>
@@ -1315,30 +1326,30 @@
         <v>15</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I16" s="5">
         <v>400</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="28.5" customFormat="1" s="8">
       <c r="A17" s="5">
         <v>19</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>13</v>
@@ -1350,68 +1361,68 @@
         <v>15</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I17" s="5">
         <v>120</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="28.5" customFormat="1" s="8">
       <c r="A18" s="5">
         <v>20</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="H18" s="6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I18" s="5">
         <v>180</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="28.5" customFormat="1" s="8">
       <c r="A19" s="5">
         <v>21</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>13</v>
@@ -1420,33 +1431,33 @@
         <v>15</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I19" s="5">
         <v>250</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="28.5" customFormat="1" s="8">
       <c r="A20" s="5">
         <v>23</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>13</v>
@@ -1455,33 +1466,33 @@
         <v>15</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I20" s="5">
         <v>300</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="29.25" customFormat="1" s="8">
       <c r="A21" s="5">
         <v>24</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>13</v>
@@ -1490,167 +1501,215 @@
         <v>15</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I21" s="5">
         <v>180</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="12"/>
-    </row>
-    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="12"/>
-    </row>
-    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="12"/>
-    </row>
-    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="12"/>
-    </row>
-    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="12"/>
-    </row>
-    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="12"/>
-    </row>
-    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="12"/>
-    </row>
-    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="12"/>
-    </row>
-    <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="12"/>
-    </row>
-    <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="12"/>
-    </row>
-    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="12"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/db/gatienda_uaq.xlsx
+++ b/assets/db/gatienda_uaq.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Local Sites\deportes-uaq\app\public\wp-content\themes\Deportes-UAQ\assets\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1F4D64-622F-4E05-BFD6-60854E537E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="915" yWindow="1920" windowWidth="32910" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="productos"/>
+    <sheet name="productos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="96">
   <si>
     <t>id</t>
   </si>
@@ -73,9 +79,6 @@
     <t>deportiva</t>
   </si>
   <si>
-    <t>/img/gatienda/Gachamarra_000000_1.jpg</t>
-  </si>
-  <si>
     <t>Gadeportiva</t>
   </si>
   <si>
@@ -88,9 +91,6 @@
     <t>Comodidad para cada entrenamiento</t>
   </si>
   <si>
-    <t>/img/gatienda/Gadeportiva_FFFFFF_1.JPG</t>
-  </si>
-  <si>
     <t>Gadeportiva manga</t>
   </si>
   <si>
@@ -100,9 +100,6 @@
     <t>Estilo y rendimiento en uno</t>
   </si>
   <si>
-    <t>/img/gatienda/Gadeportiva manga larga_000000_1.jpg</t>
-  </si>
-  <si>
     <t>Gasueter</t>
   </si>
   <si>
@@ -118,30 +115,12 @@
     <t>Versatilidad para cada ocasión</t>
   </si>
   <si>
-    <t>/img/gatienda/Gasueter_0000FF_1.jpg</t>
-  </si>
-  <si>
-    <t>Gaoficial</t>
-  </si>
-  <si>
-    <t>Uniforme oficial para eventos deportivos</t>
-  </si>
-  <si>
-    <t>Representa a tu equipo con orgullo</t>
-  </si>
-  <si>
-    <t>/img/gatienda/IMG_0002.jpg</t>
-  </si>
-  <si>
     <t>Gapolo</t>
   </si>
   <si>
     <t>Polo de tela ligera y elegante</t>
   </si>
   <si>
-    <t>Blanco, Verde</t>
-  </si>
-  <si>
     <t>Casual y sofisticado</t>
   </si>
   <si>
@@ -151,24 +130,12 @@
     <t>Playera técnica para carreras de alto rendimiento</t>
   </si>
   <si>
-    <t>Amarillo, Azul</t>
+    <t>Azul, Blanco</t>
   </si>
   <si>
     <t>Corre más allá de tus límites</t>
   </si>
   <si>
-    <t>Gacamisa</t>
-  </si>
-  <si>
-    <t>Camisa formal de corte moderno</t>
-  </si>
-  <si>
-    <t>Caballero</t>
-  </si>
-  <si>
-    <t>Distinción en cada detalle</t>
-  </si>
-  <si>
     <t>Gabolsa</t>
   </si>
   <si>
@@ -178,7 +145,7 @@
     <t>30x15x20 cm</t>
   </si>
   <si>
-    <t>Negro, Gris</t>
+    <t>Azul, Naranja</t>
   </si>
   <si>
     <t>Lleva todo contigo sin esfuerzo</t>
@@ -193,114 +160,81 @@
     <t>Gorra básica para uso casual</t>
   </si>
   <si>
-    <t>Negro, Azul</t>
+    <t>Azul, Negro</t>
   </si>
   <si>
     <t>Estilo y protección en uno</t>
   </si>
   <si>
-    <t>Gagorra baseball</t>
-  </si>
-  <si>
-    <t>Gorra con diseño inspirado en el béisbol</t>
-  </si>
-  <si>
-    <t>Blanco, Rojo</t>
-  </si>
-  <si>
-    <t>Vive el deporte con estilo</t>
-  </si>
-  <si>
     <t>Gataza</t>
   </si>
   <si>
     <t>Camiseta básica cómoda para uso diario</t>
   </si>
   <si>
+    <t>Menos es más</t>
+  </si>
+  <si>
+    <t>Gataza DeportesUAQ</t>
+  </si>
+  <si>
+    <t>Camiseta personalizada para eventos de la UAQ</t>
+  </si>
+  <si>
+    <t>15x5x5 cm</t>
+  </si>
+  <si>
+    <t>Espíritu deportivo universitario</t>
+  </si>
+  <si>
+    <t>Gagoggles</t>
+  </si>
+  <si>
+    <t>Gafas deportivas para natación o ciclismo</t>
+  </si>
+  <si>
+    <t>15x5 cm</t>
+  </si>
+  <si>
+    <t>Protección y estilo en tus aventuras</t>
+  </si>
+  <si>
+    <t>Gagorro natación</t>
+  </si>
+  <si>
+    <t>Gorra de silicona para natación de los más altos</t>
+  </si>
+  <si>
+    <t>Desempeño acuático sin igual</t>
+  </si>
+  <si>
+    <t>Gatoalla</t>
+  </si>
+  <si>
+    <t>Toalla absorbente ideal para entrenamientos</t>
+  </si>
+  <si>
+    <t>60x120 cm</t>
+  </si>
+  <si>
+    <t>Azul, Rosa</t>
+  </si>
+  <si>
+    <t>Seca cada momento</t>
+  </si>
+  <si>
+    <t>Gavaso</t>
+  </si>
+  <si>
+    <t>Vaso térmico portátil para bebidas</t>
+  </si>
+  <si>
+    <t>15x8 cm</t>
+  </si>
+  <si>
     <t>Blanco, Gris</t>
   </si>
   <si>
-    <t>Menos es más</t>
-  </si>
-  <si>
-    <t>Gataza logo</t>
-  </si>
-  <si>
-    <t>Camiseta con el logotipo oficial de la marca</t>
-  </si>
-  <si>
-    <t>Negro, Blanco</t>
-  </si>
-  <si>
-    <t>Muestra tu estilo con orgullo</t>
-  </si>
-  <si>
-    <t>Gataza deportesuaq</t>
-  </si>
-  <si>
-    <t>Camiseta personalizada para eventos de la UAQ</t>
-  </si>
-  <si>
-    <t>15x5x5 cm</t>
-  </si>
-  <si>
-    <t>Espíritu deportivo universitario</t>
-  </si>
-  <si>
-    <t>Gagogles</t>
-  </si>
-  <si>
-    <t>Gafas deportivas para natación o ciclismo</t>
-  </si>
-  <si>
-    <t>15x5 cm</t>
-  </si>
-  <si>
-    <t>Azul, Negro</t>
-  </si>
-  <si>
-    <t>Protección y estilo en tus aventuras</t>
-  </si>
-  <si>
-    <t>Gagorro natación</t>
-  </si>
-  <si>
-    <t>Gorra de silicona para natación de los más altos</t>
-  </si>
-  <si>
-    <t>Azul, Rosa</t>
-  </si>
-  <si>
-    <t>Desempeño acuático sin igual</t>
-  </si>
-  <si>
-    <t>Gatoalla</t>
-  </si>
-  <si>
-    <t>Toalla absorbente ideal para entrenamientos</t>
-  </si>
-  <si>
-    <t>60x120 cm</t>
-  </si>
-  <si>
-    <t>Seca cada momento</t>
-  </si>
-  <si>
-    <t>/img/gatienda/Gatoalla_0000FF_1.jpg</t>
-  </si>
-  <si>
-    <t>Gavaso</t>
-  </si>
-  <si>
-    <t>Vaso térmico portátil para bebidas</t>
-  </si>
-  <si>
-    <t>15x8 cm</t>
-  </si>
-  <si>
-    <t>Negro, Verde</t>
-  </si>
-  <si>
     <t>Tu bebida siempre a la temperatura ideal</t>
   </si>
   <si>
@@ -313,30 +247,74 @@
     <t>20x8 cm</t>
   </si>
   <si>
-    <t>Plata, Negro</t>
+    <t>Blanco, Azul, Rosa</t>
   </si>
   <si>
     <t>Hidratación en todo momento</t>
   </si>
   <si>
-    <t>Gatermo plástico</t>
+    <t>Gavaso plástico</t>
   </si>
   <si>
     <t>Termo ligero y resistente para uso diario</t>
   </si>
   <si>
-    <t>Azul, Blanco</t>
-  </si>
-  <si>
     <t>Sencillo pero efectivo</t>
+  </si>
+  <si>
+    <t>http://deportesuaq.mx/wp-content/uploads/2024/12/Gavaso-plastico_0000FF_4-scaled.jpg</t>
+  </si>
+  <si>
+    <t>http://deportesuaq.mx/wp-content/uploads/2024/12/Gachamarra_000000_1-scaled.jpg</t>
+  </si>
+  <si>
+    <t>http://deportesuaq.mx/wp-content/uploads/2024/12/Gatermo_FFFFFF_1-scaled.jpg</t>
+  </si>
+  <si>
+    <t>http://deportesuaq.mx/wp-content/uploads/2024/12/Gadeportiva_FFFFFF_1-scaled.JPG</t>
+  </si>
+  <si>
+    <t>http://deportesuaq.mx/wp-content/uploads/2024/12/Gadeportiva manga_000000_1-scaled.jpg</t>
+  </si>
+  <si>
+    <t>http://deportesuaq.mx/wp-content/uploads/2024/12/Gasueter_0000FF_1-scaled.jpg</t>
+  </si>
+  <si>
+    <t>http://deportesuaq.mx/wp-content/uploads/2024/12/Gapolo_0000FF_1-scaled.jpg</t>
+  </si>
+  <si>
+    <t>http://deportesuaq.mx/wp-content/uploads/2024/12/Gacarrera_0000FF_1-scaled.jpg</t>
+  </si>
+  <si>
+    <t>http://deportesuaq.mx/wp-content/uploads/2024/12/Gabolsa_0000FF_1-scaled.jpg</t>
+  </si>
+  <si>
+    <t>http://deportesuaq.mx/wp-content/uploads/2024/12/Gagorra_0000FF_1-scaled.jpg</t>
+  </si>
+  <si>
+    <t>http://deportesuaq.mx/wp-content/uploads/2024/12/Gataza_0000FF_1-scaled.jpg</t>
+  </si>
+  <si>
+    <t>http://deportesuaq.mx/wp-content/uploads/2024/12/Gataza DeportesUAQ_0000FF_1-scaled.jpg</t>
+  </si>
+  <si>
+    <t>http://deportesuaq.mx/wp-content/uploads/2024/12/Gagoggles_000000_1-scaled.jpg</t>
+  </si>
+  <si>
+    <t>http://deportesuaq.mx/wp-content/uploads/2024/12/Gagorro natación_0000FF_1-scaled.jpg</t>
+  </si>
+  <si>
+    <t>http://deportesuaq.mx/wp-content/uploads/2024/12/Gatoalla_0000FF_1-scaled.jpg</t>
+  </si>
+  <si>
+    <t>http://deportesuaq.mx/wp-content/uploads/2024/12/Gavaso_FFFFFF_1-scaled.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,10 +335,20 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -372,7 +360,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFefefef"/>
+        <fgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
   </fills>
@@ -407,68 +395,79 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -479,10 +478,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -520,71 +519,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -612,7 +611,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -635,11 +634,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -648,13 +647,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -664,7 +663,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -673,7 +672,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -682,7 +681,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -690,10 +689,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -758,30 +757,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="E9" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="2.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="46.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="51.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="15" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="37.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="15" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="16" width="46.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="5.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="88.28515625" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -816,7 +817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -847,19 +848,19 @@
       <c r="J2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="K2" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>13</v>
@@ -871,10 +872,10 @@
         <v>15</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="I3" s="5">
         <v>350</v>
@@ -882,19 +883,19 @@
       <c r="J3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="28.5">
+      <c r="K3" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>13</v>
@@ -909,7 +910,7 @@
         <v>16</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I4" s="5">
         <v>280</v>
@@ -917,34 +918,34 @@
       <c r="J4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="K4" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I5" s="5">
         <v>500</v>
@@ -952,19 +953,19 @@
       <c r="J5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="K5" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>13</v>
@@ -976,313 +977,313 @@
         <v>15</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I6" s="5">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="K6" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I7" s="5">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="5">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="C8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="5">
+        <v>350</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="5">
-        <v>320</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="5">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="I9" s="5">
+        <v>150</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="C10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="5">
-        <v>450</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="28.5" customFormat="1" s="8">
-      <c r="A10" s="5">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="E10" s="6" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I10" s="5">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="28.5" customFormat="1" s="8">
+        <v>43</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I11" s="5">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="J11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>17</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="28.5" customFormat="1" s="8">
-      <c r="A12" s="5">
+      <c r="D12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I12" s="5">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="28.5" customFormat="1" s="8">
+        <v>43</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I13" s="5">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="28.5" customFormat="1" s="8">
+        <v>43</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I14" s="5">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="28.5" customFormat="1" s="8">
+        <v>43</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>13</v>
@@ -1291,33 +1292,33 @@
         <v>15</v>
       </c>
       <c r="G15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="I15" s="5">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="28.5" customFormat="1" s="8">
+        <v>43</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>13</v>
@@ -1326,236 +1327,149 @@
         <v>15</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I16" s="5">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="28.5" customFormat="1" s="8">
+        <v>43</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I17" s="5">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="28.5" customFormat="1" s="8">
-      <c r="A18" s="5">
-        <v>20</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="5">
-        <v>180</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="28.5" customFormat="1" s="8">
-      <c r="A19" s="5">
-        <v>21</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I19" s="5">
-        <v>250</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="28.5" customFormat="1" s="8">
-      <c r="A20" s="5">
-        <v>23</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20" s="5">
-        <v>300</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="29.25" customFormat="1" s="8">
-      <c r="A21" s="5">
-        <v>24</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I21" s="5">
-        <v>180</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17" s="18"/>
+    </row>
+    <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
       <c r="K22" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
+    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
       <c r="K23" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="10"/>
+    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
       <c r="K24" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -1568,7 +1482,7 @@
       <c r="J25" s="13"/>
       <c r="K25" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -1581,7 +1495,7 @@
       <c r="J26" s="13"/>
       <c r="K26" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -1594,7 +1508,7 @@
       <c r="J27" s="13"/>
       <c r="K27" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -1607,7 +1521,7 @@
       <c r="J28" s="13"/>
       <c r="K28" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -1620,7 +1534,7 @@
       <c r="J29" s="13"/>
       <c r="K29" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -1633,7 +1547,7 @@
       <c r="J30" s="13"/>
       <c r="K30" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -1646,7 +1560,7 @@
       <c r="J31" s="13"/>
       <c r="K31" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -1659,59 +1573,25 @@
       <c r="J32" s="13"/>
       <c r="K32" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="11"/>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{1A33222A-BFBE-4F4E-A6AE-D1478EF26D11}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{DF0F99AC-A6F4-4E28-93C3-DD4E2A5088CD}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{E7F7E71F-7417-4ACF-9D5E-4A02872C8CD6}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{54CA58D1-583A-41B3-8FC6-6D19BB557D2B}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{507F247E-452F-483D-9341-3BAEFB543B47}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{90B1EB07-8BAC-49BE-A626-84623AD562F9}"/>
+    <hyperlink ref="K8" r:id="rId7" xr:uid="{8C95B080-D649-4F86-8695-61CCBDB9F8CC}"/>
+    <hyperlink ref="K9" r:id="rId8" xr:uid="{8A531300-82F5-4BA8-8304-5ACE1225B668}"/>
+    <hyperlink ref="K10" r:id="rId9" xr:uid="{EA927D11-2A4C-4481-BCF8-884059EB3550}"/>
+    <hyperlink ref="K11" r:id="rId10" xr:uid="{8157AA71-F362-4027-A5FD-4E4E38BC2631}"/>
+    <hyperlink ref="K12" r:id="rId11" xr:uid="{3C2D44BA-C555-4E9E-AC00-A3F1EDCAE8B4}"/>
+    <hyperlink ref="K13" r:id="rId12" xr:uid="{E433D1BA-3918-4EBD-9B51-823AA3ADDE9A}"/>
+    <hyperlink ref="K14" r:id="rId13" xr:uid="{5DE46B2D-A9BE-4A51-88AD-204274ECF1E3}"/>
+    <hyperlink ref="K15" r:id="rId14" xr:uid="{CDDF3BED-68DB-4BA2-8FED-F2FCC85D5187}"/>
+    <hyperlink ref="K16" r:id="rId15" xr:uid="{12E1635E-5229-434C-B394-248EF2ABC246}"/>
+    <hyperlink ref="K17" r:id="rId16" xr:uid="{4C3EFC92-97EE-47C7-BEE3-40382F84ED4A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>